--- a/biology/Botanique/Quercus_variabilis/Quercus_variabilis.xlsx
+++ b/biology/Botanique/Quercus_variabilis/Quercus_variabilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chêne liège de Chine  Quercus variabilis,  Quercus bungeana ou  Quercus variabilis Blume est un arbre monoïque à couronne large appartenant à la section des chênes cerris du genre Quercus de la famille des Fagacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’arbre est originaire des zones tempérées et subtropicales de l’est de l’Asie où on le trouve jusqu’à 3 400 m d’altitude.
 Introduit en Europe en 1861 par R. Fortune, on le trouve aujourd’hui en  Allemagne, en Belgique et en France. Il a besoin d’un bon ensoleillement et supporte bien la sécheresse. Il résiste au gel jusqu'à −20 °C mais craint l’humidité.
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Quercus variabilis est un arbre caduc monoïque à croissance rapide d'une hauteur moyenne de 25 à 30 m.
 Le tronc a une écorce liégeuse profondément fissurée et très rugueuse de couleur gris-argenté.
@@ -578,7 +594,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est cultivé sur une petite étendue en Chine pour la qualité de son bois et dans une moindre mesure pour l’utilisation de son écorce, car il a un rendement  plus faible que celui du chêne-liège. Ses feuilles servent à nourrir le ver à soie tussah, Antheraea pernyi.
 En Europe, il est occasionnellement utilisé dans les parcs comme arbre d’ornement en particulier pour la beauté de son feuillage automnal.
